--- a/jpcore-r4/feature/swg2_diagnosticreport-radiology/StructureDefinition-jp-observation-radiology-impression.xlsx
+++ b/jpcore-r4/feature/swg2_diagnosticreport-radiology/StructureDefinition-jp-observation-radiology-impression.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>JP Core Observation Common Profile</t>
+    <t>JP Core Observation Radiology Impression Profile</t>
   </si>
   <si>
     <t>Status</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>このプロファイルはObservationリソースに対して、データを送受信するための共通の制約と拡張を定めたものである。</t>
+    <t>このプロファイルはDiagnosticReport_Radiologyリソースに関連する画像診断報告書の「インプレッション」データを送受信するための共通の制約と拡張を定めたものである</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/jpcore-r4/feature/swg2_diagnosticreport-radiology/StructureDefinition-jp-observation-radiology-impression.xlsx
+++ b/jpcore-r4/feature/swg2_diagnosticreport-radiology/StructureDefinition-jp-observation-radiology-impression.xlsx
@@ -1507,7 +1507,7 @@
     <t>この観察は、グループのメンバーとしてのターゲットを含むグループ観察（たとえば、バッテリー、テストのパネル、重要な兆候測定のセット）です。 / This observation is a group observation (e.g. a battery, a panel of tests, a set of vital sign measurements) that includes the target as a member of the group.</t>
   </si>
   <si>
-    <t>この要素を使用する場合、観察には通常、値または関連するリソースのセットがありますが、どちらも場合によっては存在する場合があります。観察結果がグループで組み立てられる方法についての議論については、以下の[注]（obervation.html＃obsgrouping）を参照してください。システムは、[Questionnairesponse]（Questionnearesponse.html）の結果を最終スコアに計算し、観察としてスコアを表す場合があることに注意してください。 / When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
+    <t>この要素を使用する場合、観察には通常、値または関連するリソースのセットがありますが、どちらも場合によっては存在する場合があります。観察結果がグループで組み立てられる方法についての議論については、以下の[注]（obervation.html＃obsgrouping）を参照してください。システムは、[Questionnairesponse]（Questionnearesponse.html）の結果を最終スコアに計算し、観察としてスコアを表す場合があることに注意してください。 / When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](http://hl7.org/fhir/R4/questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
   </si>
   <si>
     <t>Relationships established by OBX-4 usage</t>

--- a/jpcore-r4/feature/swg2_diagnosticreport-radiology/StructureDefinition-jp-observation-radiology-impression.xlsx
+++ b/jpcore-r4/feature/swg2_diagnosticreport-radiology/StructureDefinition-jp-observation-radiology-impression.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/core/StructureDefinition/JP_Observation_Radiology_impression</t>
+    <t>http://jpfhir.jp/fhir/core/StructureDefinition/JP_Observation_Radiology_Impression</t>
   </si>
   <si>
     <t>Version</t>
